--- a/web/new_mission.xlsx
+++ b/web/new_mission.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\hope3k\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\h3k\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129295C2-7439-41FA-B0D8-C0AE57B85678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$128</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="184">
   <si>
     <t>Client</t>
   </si>
@@ -66,9 +65,6 @@
     <t>AMEXA</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>PO/2021/00266</t>
   </si>
   <si>
@@ -456,9 +452,6 @@
     <t>MEDI TELECOM</t>
   </si>
   <si>
-    <t>4200060084--4200060378</t>
-  </si>
-  <si>
     <t>AMINE ALLAL</t>
   </si>
   <si>
@@ -516,15 +509,6 @@
     <t>SORT</t>
   </si>
   <si>
-    <t>ITELCOSYS</t>
-  </si>
-  <si>
-    <t>compagne service informatique</t>
-  </si>
-  <si>
-    <t>ONEPM</t>
-  </si>
-  <si>
     <t>ETAT</t>
   </si>
   <si>
@@ -598,17 +582,20 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>ITELCO SYS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -650,9 +637,15 @@
       <sz val="10"/>
       <color rgb="FF56DB3A"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,8 +682,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -757,12 +756,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -775,7 +789,7 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -785,7 +799,7 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -813,6 +827,11 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -1093,11 +1112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1115,7 +1134,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1136,17 +1155,17 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -1161,11 +1180,9 @@
       <c r="F2" s="2">
         <v>76840</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I2" s="5">
         <v>44196</v>
@@ -1175,17 +1192,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="2">
         <v>42500</v>
@@ -1194,7 +1211,7 @@
         <v>37537</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I3" s="7">
         <v>44255</v>
@@ -1204,17 +1221,17 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>160</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F4" s="2">
         <v>8000</v>
@@ -1229,14 +1246,14 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1248,7 +1265,7 @@
         <v>2580</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I5" s="7">
         <v>44255</v>
@@ -1258,14 +1275,14 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1277,7 +1294,7 @@
         <v>1275</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I6" s="9">
         <v>44255</v>
@@ -1287,14 +1304,14 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1306,7 +1323,7 @@
         <v>2105</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I7" s="7">
         <v>44255</v>
@@ -1316,17 +1333,17 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
       </c>
       <c r="F8" s="2">
         <v>2000</v>
@@ -1335,7 +1352,7 @@
         <v>1435</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I8" s="9">
         <v>44255</v>
@@ -1345,17 +1362,17 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -1364,7 +1381,7 @@
         <v>2485</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
         <v>44255</v>
@@ -1374,17 +1391,17 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2">
         <v>1476</v>
@@ -1393,7 +1410,7 @@
         <v>1340</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I10" s="9">
         <v>44255</v>
@@ -1403,17 +1420,17 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
         <v>1760</v>
@@ -1422,7 +1439,7 @@
         <v>1720</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I11" s="7">
         <v>44255</v>
@@ -1432,17 +1449,17 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2">
         <v>1800</v>
@@ -1451,7 +1468,7 @@
         <v>1625</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I12" s="9">
         <v>44255</v>
@@ -1461,17 +1478,17 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2">
         <v>2050</v>
@@ -1480,7 +1497,7 @@
         <v>1845</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I13" s="7">
         <v>44255</v>
@@ -1490,14 +1507,14 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -1509,7 +1526,7 @@
         <v>930</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I14" s="9">
         <v>44255</v>
@@ -1519,17 +1536,17 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>160</v>
+        <v>27</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F15" s="2">
         <v>1700</v>
@@ -1544,17 +1561,17 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2">
         <v>1120</v>
@@ -1563,7 +1580,7 @@
         <v>1040</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I16" s="9">
         <v>44255</v>
@@ -1573,17 +1590,17 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
       </c>
       <c r="F17" s="2">
         <v>1800</v>
@@ -1592,7 +1609,7 @@
         <v>1665</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I17" s="7">
         <v>44255</v>
@@ -1602,17 +1619,17 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2">
         <v>2300</v>
@@ -1621,7 +1638,7 @@
         <v>1915</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I18" s="9">
         <v>44166</v>
@@ -1631,17 +1648,17 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2">
         <v>2400</v>
@@ -1650,7 +1667,7 @@
         <v>2250</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I19" s="7">
         <v>44255</v>
@@ -1660,17 +1677,17 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>160</v>
+        <v>35</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F20" s="2">
         <v>2300</v>
@@ -1685,17 +1702,17 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>160</v>
+        <v>36</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F21" s="2">
         <v>4000</v>
@@ -1710,17 +1727,17 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>160</v>
+        <v>37</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F22" s="2">
         <v>2400</v>
@@ -1735,17 +1752,17 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2">
         <v>2800</v>
@@ -1754,7 +1771,7 @@
         <v>2680</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I23" s="7">
         <v>44166</v>
@@ -1764,17 +1781,17 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" t="s">
-        <v>161</v>
+        <v>40</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="F24" s="2">
         <v>1000</v>
@@ -1789,17 +1806,17 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s">
-        <v>161</v>
+        <v>41</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="F25" s="2">
         <v>1000</v>
@@ -1814,17 +1831,17 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>160</v>
+        <v>42</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F26" s="2">
         <v>1000</v>
@@ -1839,17 +1856,17 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2">
         <v>1600</v>
@@ -1858,7 +1875,7 @@
         <v>1565</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I27" s="7">
         <v>44255</v>
@@ -1868,17 +1885,17 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>160</v>
+        <v>44</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F28" s="2">
         <v>1000</v>
@@ -1893,17 +1910,17 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>160</v>
+        <v>45</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F29" s="2">
         <v>1000</v>
@@ -1918,17 +1935,17 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" t="s">
-        <v>160</v>
+        <v>46</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F30" s="2">
         <v>1000</v>
@@ -1943,17 +1960,17 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" t="s">
-        <v>160</v>
+        <v>47</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F31" s="2">
         <v>1200</v>
@@ -1968,17 +1985,17 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" t="s">
-        <v>160</v>
+        <v>48</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F32" s="2">
         <v>1000</v>
@@ -1993,17 +2010,17 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" t="s">
-        <v>161</v>
+        <v>49</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="F33" s="2">
         <v>1750</v>
@@ -2018,17 +2035,17 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" t="s">
-        <v>160</v>
+        <v>50</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F34" s="2">
         <v>1400</v>
@@ -2043,17 +2060,17 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" t="s">
-        <v>160</v>
+        <v>51</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F35" s="2">
         <v>1400</v>
@@ -2068,17 +2085,17 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" t="s">
-        <v>160</v>
+        <v>52</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F36" s="2">
         <v>1000</v>
@@ -2093,17 +2110,17 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" t="s">
-        <v>160</v>
+        <v>53</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F37" s="2">
         <v>1400</v>
@@ -2118,17 +2135,17 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2">
         <v>1500</v>
@@ -2137,7 +2154,7 @@
         <v>1460</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I38" s="9">
         <v>44255</v>
@@ -2147,17 +2164,17 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" t="s">
         <v>56</v>
-      </c>
-      <c r="E39" t="s">
-        <v>57</v>
       </c>
       <c r="F39" s="2">
         <v>1700</v>
@@ -2172,17 +2189,17 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" t="s">
-        <v>160</v>
+        <v>57</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F40" s="2">
         <v>1450</v>
@@ -2197,17 +2214,17 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" t="s">
-        <v>160</v>
+        <v>58</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="F41" s="2">
         <v>1000</v>
@@ -2222,17 +2239,17 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2">
         <v>1150</v>
@@ -2241,7 +2258,7 @@
         <v>1137</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I42" s="9">
         <v>44255</v>
@@ -2251,17 +2268,17 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>61</v>
+      <c r="B43" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C43" s="2">
         <v>3700074730</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F43" s="2">
         <v>2900</v>
@@ -2276,17 +2293,17 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>61</v>
+      <c r="B44" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C44" s="2">
         <v>3700058367</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F44" s="2">
         <v>2100</v>
@@ -2301,17 +2318,17 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>61</v>
+      <c r="B45" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C45" s="2">
         <v>3700051693</v>
       </c>
       <c r="D45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" t="s">
         <v>64</v>
-      </c>
-      <c r="E45" t="s">
-        <v>65</v>
       </c>
       <c r="F45" s="2">
         <v>2200</v>
@@ -2326,17 +2343,17 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>61</v>
+      <c r="B46" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C46" s="2">
         <v>3700047955</v>
       </c>
       <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
         <v>66</v>
-      </c>
-      <c r="E46" t="s">
-        <v>67</v>
       </c>
       <c r="F46" s="2">
         <v>3200</v>
@@ -2351,17 +2368,17 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>61</v>
+      <c r="B47" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C47" s="2">
         <v>3700074729</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F47" s="2">
         <v>2100</v>
@@ -2376,17 +2393,17 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>61</v>
+      <c r="B48" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C48" s="2">
         <v>3700022255</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" s="2">
         <v>2400</v>
@@ -2401,17 +2418,17 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>61</v>
+      <c r="B49" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C49" s="2">
         <v>3700047959</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2">
         <v>2300</v>
@@ -2426,17 +2443,17 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>61</v>
+      <c r="B50" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C50" s="2">
         <v>3700031715</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" t="s">
-        <v>161</v>
+        <v>70</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="F50" s="2">
         <v>2600</v>
@@ -2451,17 +2468,17 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>61</v>
+      <c r="B51" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C51" s="2">
         <v>3700051623</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2">
         <v>3000</v>
@@ -2476,17 +2493,17 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>61</v>
+      <c r="B52" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C52" s="2">
         <v>3700036694</v>
       </c>
       <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
         <v>73</v>
-      </c>
-      <c r="E52" t="s">
-        <v>74</v>
       </c>
       <c r="F52" s="2">
         <v>4000</v>
@@ -2501,17 +2518,14 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
+      <c r="B53" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F53" s="2">
         <v>1500</v>
@@ -2526,17 +2540,17 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>61</v>
+      <c r="B54" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C54" s="2">
         <v>3700053646</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E54" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F54" s="2">
         <v>2300</v>
@@ -2551,17 +2565,17 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>61</v>
+      <c r="B55" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C55" s="2">
         <v>3700061393</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2">
         <v>2400</v>
@@ -2576,17 +2590,17 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>61</v>
+      <c r="B56" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C56" s="2">
         <v>3700051689</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2">
         <v>3000</v>
@@ -2601,17 +2615,17 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>61</v>
+      <c r="B57" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C57" s="2">
         <v>3700058363</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F57" s="2">
         <v>2100</v>
@@ -2626,17 +2640,14 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
+      <c r="B58" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F58" s="2">
         <v>1700</v>
@@ -2651,15 +2662,15 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>61</v>
+      <c r="B59" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F59" s="2">
         <v>1700</v>
@@ -2668,7 +2679,7 @@
         <v>1470.5882352941176</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I59" s="13"/>
     </row>
@@ -2676,17 +2687,17 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>61</v>
+      <c r="B60" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C60" s="2">
         <v>3700051581</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60" s="2">
         <v>2200</v>
@@ -2701,17 +2712,17 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>61</v>
+      <c r="B61" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C61" s="2">
         <v>3700042047</v>
       </c>
       <c r="D61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2">
         <v>3200</v>
@@ -2726,17 +2737,17 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>61</v>
+      <c r="B62" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C62" s="2">
         <v>3700053669</v>
       </c>
       <c r="D62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2">
         <v>3000</v>
@@ -2751,17 +2762,17 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>61</v>
+      <c r="B63" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C63" s="2">
         <v>3700047958</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2">
         <v>2678</v>
@@ -2776,17 +2787,17 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>61</v>
+      <c r="B64" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C64" s="2">
         <v>3700047957</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F64" s="2">
         <v>3200</v>
@@ -2801,17 +2812,17 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>61</v>
+      <c r="B65" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C65" s="2">
         <v>3700058347</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F65" s="2">
         <v>1000</v>
@@ -2826,17 +2837,17 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>61</v>
+      <c r="B66" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C66" s="2">
         <v>3700058342</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F66" s="2">
         <v>1000</v>
@@ -2851,17 +2862,17 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>61</v>
+      <c r="B67" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C67" s="2">
         <v>3700075478</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2">
         <v>1339</v>
@@ -2876,17 +2887,17 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>61</v>
+      <c r="B68" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C68" s="2">
         <v>3700031577</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F68" s="2">
         <v>2781</v>
@@ -2901,17 +2912,17 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>61</v>
+      <c r="B69" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C69" s="2">
         <v>3700075476</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2">
         <v>1450</v>
@@ -2926,17 +2937,17 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>61</v>
+      <c r="B70" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C70" s="2">
         <v>3700053667</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F70" s="2">
         <v>2500</v>
@@ -2951,17 +2962,17 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>61</v>
+      <c r="B71" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C71" s="2">
         <v>3700037819</v>
       </c>
       <c r="D71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F71" s="2">
         <v>2400</v>
@@ -2976,17 +2987,17 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>61</v>
+      <c r="B72" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C72" s="2">
         <v>3700037820</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F72" s="2">
         <v>2400</v>
@@ -3001,17 +3012,17 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>61</v>
+      <c r="B73" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C73" s="2">
         <v>3700042059</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F73" s="2">
         <v>2100</v>
@@ -3026,17 +3037,17 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>61</v>
+      <c r="B74" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C74" s="2">
         <v>3700037817</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F74" s="2">
         <v>2400</v>
@@ -3051,17 +3062,17 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>61</v>
+      <c r="B75" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C75" s="2">
         <v>3700058340</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F75" s="2">
         <v>2000</v>
@@ -3076,17 +3087,17 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>61</v>
+      <c r="B76" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C76" s="2">
         <v>3700047893</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2">
         <v>2500</v>
@@ -3101,19 +3112,17 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="B77" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="28"/>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I77" s="13"/>
     </row>
@@ -3121,17 +3130,17 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>61</v>
+      <c r="B78" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C78" s="2">
         <v>3700053670</v>
       </c>
       <c r="D78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="32" t="s">
         <v>100</v>
-      </c>
-      <c r="E78" t="s">
-        <v>101</v>
       </c>
       <c r="F78" s="2">
         <v>2300</v>
@@ -3147,16 +3156,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2">
         <v>4500008016</v>
       </c>
       <c r="D79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E79" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F79" s="2">
         <v>3100</v>
@@ -3172,16 +3181,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2">
         <v>4500006582</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E80" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F80" s="2">
         <v>2800</v>
@@ -3197,16 +3206,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2">
         <v>4500006894</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E81" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F81" s="2">
         <v>4000</v>
@@ -3222,16 +3231,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2">
         <v>4500006432</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F82" s="2">
         <v>4500</v>
@@ -3246,17 +3255,17 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>107</v>
+      <c r="B83" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="C83" s="2">
         <v>3700056277</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2">
         <v>2432.25</v>
@@ -3271,17 +3280,17 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>107</v>
+      <c r="B84" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="C84" s="2">
         <v>3700064283</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
-      </c>
-      <c r="E84" t="s">
-        <v>161</v>
+        <v>108</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="F84" s="2">
         <v>2600</v>
@@ -3296,17 +3305,17 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>107</v>
+      <c r="B85" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="C85" s="2">
         <v>3700050939</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2">
         <v>2700</v>
@@ -3321,17 +3330,14 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" t="s">
         <v>111</v>
       </c>
-      <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" t="s">
-        <v>112</v>
-      </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F86" s="2">
         <v>3600</v>
@@ -3346,17 +3352,14 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" t="s">
-        <v>10</v>
+      <c r="B87" s="32" t="s">
+        <v>110</v>
       </c>
       <c r="D87" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F87" s="2">
         <v>4050</v>
@@ -3372,16 +3375,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" t="s">
         <v>114</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>115</v>
       </c>
-      <c r="D88" t="s">
-        <v>116</v>
-      </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F88" s="2">
         <v>3900</v>
@@ -3397,16 +3400,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" t="s">
         <v>114</v>
       </c>
-      <c r="C89" t="s">
-        <v>115</v>
-      </c>
       <c r="D89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E89" t="s">
         <v>117</v>
-      </c>
-      <c r="E89" t="s">
-        <v>118</v>
       </c>
       <c r="F89" s="2">
         <v>3900</v>
@@ -3417,21 +3420,18 @@
       <c r="H89" s="10"/>
       <c r="I89" s="13"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" ht="15.75" thickBot="1">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" t="s">
         <v>119</v>
       </c>
-      <c r="C90" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" t="s">
-        <v>120</v>
-      </c>
       <c r="E90" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F90" s="2">
         <v>4500</v>
@@ -3442,21 +3442,21 @@
       <c r="H90" s="10"/>
       <c r="I90" s="13"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" ht="15.75" thickBot="1">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" t="s">
         <v>121</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>122</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>123</v>
-      </c>
-      <c r="E91" t="s">
-        <v>124</v>
       </c>
       <c r="F91" s="2">
         <v>4700</v>
@@ -3467,21 +3467,21 @@
       <c r="H91" s="10"/>
       <c r="I91" s="13"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" ht="15.75" thickBot="1">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" t="s">
         <v>121</v>
       </c>
-      <c r="C92" t="s">
-        <v>122</v>
-      </c>
       <c r="D92" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" t="s">
         <v>125</v>
-      </c>
-      <c r="E92" t="s">
-        <v>126</v>
       </c>
       <c r="F92" s="2">
         <v>4500</v>
@@ -3492,21 +3492,21 @@
       <c r="H92" s="10"/>
       <c r="I92" s="13"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" ht="15.75" thickBot="1">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" t="s">
         <v>121</v>
       </c>
-      <c r="C93" t="s">
-        <v>122</v>
-      </c>
       <c r="D93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F93" s="2">
         <v>4200</v>
@@ -3515,27 +3515,27 @@
         <v>3500</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I93" s="13">
         <v>44211</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" ht="15.75" thickBot="1">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" t="s">
         <v>121</v>
       </c>
-      <c r="C94" t="s">
-        <v>122</v>
-      </c>
       <c r="D94" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" t="s">
         <v>128</v>
-      </c>
-      <c r="E94" t="s">
-        <v>129</v>
       </c>
       <c r="F94" s="2">
         <v>4200</v>
@@ -3546,21 +3546,21 @@
       <c r="H94" s="10"/>
       <c r="I94" s="13"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" ht="15.75" thickBot="1">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" t="s">
         <v>121</v>
       </c>
-      <c r="C95" t="s">
-        <v>122</v>
-      </c>
       <c r="D95" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" t="s">
         <v>130</v>
-      </c>
-      <c r="E95" t="s">
-        <v>131</v>
       </c>
       <c r="F95" s="2">
         <v>4000</v>
@@ -3571,21 +3571,21 @@
       <c r="H95" s="10"/>
       <c r="I95" s="13"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" ht="15.75" thickBot="1">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>132</v>
+      <c r="B96" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="C96" s="2">
         <v>43159</v>
       </c>
       <c r="D96" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E96" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F96" s="2">
         <v>4200</v>
@@ -3596,21 +3596,21 @@
       <c r="H96" s="10"/>
       <c r="I96" s="13"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" ht="15.75" thickBot="1">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>132</v>
+      <c r="B97" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="C97" s="2">
         <v>41770</v>
       </c>
       <c r="D97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F97" s="2">
         <v>4100</v>
@@ -3621,21 +3621,21 @@
       <c r="H97" s="10"/>
       <c r="I97" s="13"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" ht="15.75" thickBot="1">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>132</v>
+      <c r="B98" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="C98" s="2">
         <v>42528</v>
       </c>
       <c r="D98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F98" s="2">
         <v>4100</v>
@@ -3646,21 +3646,21 @@
       <c r="H98" s="10"/>
       <c r="I98" s="13"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" ht="15.75" thickBot="1">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C99" t="s">
         <v>136</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>137</v>
       </c>
-      <c r="D99" t="s">
-        <v>138</v>
-      </c>
       <c r="E99" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F99" s="2">
         <v>2900</v>
@@ -3676,16 +3676,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100">
+        <v>4.2000600844200002E+19</v>
+      </c>
+      <c r="D100" t="s">
         <v>139</v>
       </c>
-      <c r="C100" t="s">
-        <v>140</v>
-      </c>
-      <c r="D100" t="s">
-        <v>141</v>
-      </c>
       <c r="E100" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F100" s="2">
         <v>4500</v>
@@ -3701,16 +3701,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C101" s="2">
         <v>4200060378</v>
       </c>
       <c r="D101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E101" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F101" s="2">
         <v>4500</v>
@@ -3726,16 +3726,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C102" s="2">
         <v>4200059789</v>
       </c>
       <c r="D102" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E102" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F102" s="2">
         <v>4500</v>
@@ -3751,16 +3751,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2">
         <v>4200059791</v>
       </c>
       <c r="D103" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F103" s="2">
         <v>4500</v>
@@ -3776,16 +3776,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" t="s">
         <v>145</v>
       </c>
-      <c r="C104" t="s">
-        <v>146</v>
-      </c>
-      <c r="D104" t="s">
-        <v>147</v>
-      </c>
       <c r="E104" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F104" s="2">
         <v>2950</v>
@@ -3801,23 +3801,18 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C105" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E105" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F105" s="2">
         <v>630</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G105" s="2"/>
       <c r="H105" s="10"/>
       <c r="I105" s="13"/>
     </row>
@@ -3825,17 +3820,17 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C106" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" t="s">
         <v>149</v>
       </c>
-      <c r="C106" t="s">
-        <v>150</v>
-      </c>
-      <c r="D106" t="s">
-        <v>151</v>
-      </c>
       <c r="E106" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F106" s="2">
         <v>2100</v>
@@ -3851,41 +3846,33 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
-      </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F107" s="2">
         <v>900</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G107" s="2"/>
       <c r="H107" s="10"/>
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" ht="15.75" thickBot="1">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
-      </c>
-      <c r="C108" s="2">
+        <v>101</v>
+      </c>
+      <c r="C108" s="33">
         <v>4500006376</v>
       </c>
       <c r="D108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F108" s="2">
         <v>3600</v>
@@ -3896,21 +3883,21 @@
       <c r="H108" s="10"/>
       <c r="I108" s="13"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" ht="15.75" thickBot="1">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
-        <v>132</v>
+      <c r="B109" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="C109" s="2">
         <v>42836</v>
       </c>
       <c r="D109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E109" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F109" s="2">
         <v>3800</v>
@@ -3925,17 +3912,17 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
-        <v>61</v>
+      <c r="B110" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C110" s="2">
         <v>3700061407</v>
       </c>
       <c r="D110" t="s">
-        <v>99</v>
-      </c>
-      <c r="E110" t="s">
-        <v>161</v>
+        <v>98</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="F110" s="2">
         <v>1500</v>
@@ -3946,21 +3933,21 @@
       <c r="H110" s="10"/>
       <c r="I110" s="13"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" ht="15.75" thickBot="1">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2">
         <v>4500007024</v>
       </c>
       <c r="D111" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E111" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F111" s="2">
         <v>3500</v>
@@ -3971,21 +3958,21 @@
       <c r="H111" s="10"/>
       <c r="I111" s="13"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" ht="15.75" thickBot="1">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" t="s">
         <v>121</v>
       </c>
-      <c r="C112" t="s">
-        <v>122</v>
-      </c>
       <c r="D112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F112" s="2">
         <v>4200</v>
@@ -4001,17 +3988,11 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C113" s="2">
         <v>202100016</v>
       </c>
-      <c r="D113" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" t="s">
-        <v>10</v>
-      </c>
       <c r="F113" s="2">
         <v>550</v>
       </c>
@@ -4022,15 +4003,18 @@
       <c r="I113" s="13"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="B114" s="14" t="s">
-        <v>61</v>
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C114" s="15"/>
       <c r="D114" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>162</v>
+        <v>166</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="F114" s="17">
         <v>2165</v>
@@ -4040,15 +4024,18 @@
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="B115" s="14" t="s">
-        <v>61</v>
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C115" s="15"/>
       <c r="D115" s="16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F115" s="17">
         <v>3100</v>
@@ -4056,17 +4043,23 @@
       <c r="G115" s="17">
         <v>2450.9803921568628</v>
       </c>
+      <c r="I115" s="31">
+        <v>112</v>
+      </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="B116" s="14" t="s">
-        <v>61</v>
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C116" s="15"/>
       <c r="D116" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F116" s="17">
         <v>2000</v>
@@ -4076,15 +4069,18 @@
       </c>
     </row>
     <row r="117" spans="1:9">
-      <c r="B117" s="14" t="s">
-        <v>61</v>
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F117" s="22">
         <v>2600</v>
@@ -4094,15 +4090,18 @@
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="B118" s="14" t="s">
-        <v>61</v>
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C118" s="15"/>
       <c r="D118" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>161</v>
+        <v>171</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="F118" s="22">
         <v>1600</v>
@@ -4112,15 +4111,18 @@
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="B119" s="14" t="s">
-        <v>61</v>
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E119" s="19" t="s">
-        <v>161</v>
+        <v>172</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="F119" s="22">
         <v>3215</v>
@@ -4129,16 +4131,19 @@
         <v>2924.5283018867922</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A120">
+        <v>119</v>
+      </c>
       <c r="B120" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120" s="15"/>
       <c r="D120" s="21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F120" s="22">
         <v>2700</v>
@@ -4147,16 +4152,19 @@
         <v>2058.8235294117649</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
-      <c r="B121" s="14" t="s">
-        <v>121</v>
+    <row r="121" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="C121" s="23"/>
       <c r="D121" s="21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F121" s="22">
         <v>4200</v>
@@ -4165,16 +4173,19 @@
         <v>3529.4117647058824</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
-      <c r="B122" s="14" t="s">
+    <row r="122" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A122">
         <v>121</v>
+      </c>
+      <c r="B122" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="C122" s="23"/>
       <c r="D122" s="25" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F122" s="26">
         <v>4800</v>
@@ -4183,16 +4194,19 @@
         <v>3623.5294117647059</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
-      <c r="B123" s="14" t="s">
-        <v>121</v>
+    <row r="123" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>120</v>
       </c>
       <c r="C123" s="23"/>
       <c r="D123" s="24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F123" s="27">
         <v>4300</v>
@@ -4202,15 +4216,18 @@
       </c>
     </row>
     <row r="124" spans="1:9">
+      <c r="A124">
+        <v>123</v>
+      </c>
       <c r="B124" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C124" s="23"/>
       <c r="D124" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F124" s="17">
         <v>1900</v>
@@ -4220,15 +4237,18 @@
       </c>
     </row>
     <row r="125" spans="1:9">
+      <c r="A125">
+        <v>124</v>
+      </c>
       <c r="B125" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F125" s="22">
         <v>1260</v>
@@ -4238,15 +4258,18 @@
       </c>
     </row>
     <row r="126" spans="1:9">
+      <c r="A126">
+        <v>125</v>
+      </c>
       <c r="B126" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C126" s="23"/>
       <c r="D126" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F126" s="22">
         <v>1260</v>
@@ -4256,15 +4279,18 @@
       </c>
     </row>
     <row r="127" spans="1:9">
+      <c r="A127">
+        <v>126</v>
+      </c>
       <c r="B127" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C127" s="23"/>
       <c r="D127" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F127" s="22">
         <v>1260</v>
@@ -4274,15 +4300,18 @@
       </c>
     </row>
     <row r="128" spans="1:9">
+      <c r="A128">
+        <v>127</v>
+      </c>
       <c r="B128" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C128" s="23"/>
       <c r="D128" s="21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F128" s="22">
         <v>1260</v>
@@ -4292,7 +4321,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G128" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I128"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
